--- a/cpuStress_res_edited.xlsx
+++ b/cpuStress_res_edited.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Development Env\Eclipse Workspace\Juno JEE\Practice\OpenWhiskTester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{719AB571-F3EB-4355-92A7-3F8CF9DD6B23}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7B98E4-D24B-424D-A8A9-54BF7108F9BC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cpuStress_res" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -585,6 +585,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CPU Calculation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stress Test</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -598,11 +631,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -624,25 +657,27 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -832,7 +867,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -847,14 +882,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -865,9 +894,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -893,7 +922,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -909,14 +938,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -927,9 +950,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -957,12 +980,25 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1030,35 +1066,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1066,20 +1102,33 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1087,16 +1136,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1113,16 +1162,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1131,39 +1175,50 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
@@ -1171,7 +1226,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -1179,14 +1234,18 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1194,7 +1253,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1210,16 +1269,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1243,14 +1301,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1262,14 +1319,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1281,14 +1337,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -1299,12 +1354,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1316,7 +1365,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1335,7 +1384,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -1352,14 +1401,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1371,14 +1419,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1387,14 +1434,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1402,7 +1449,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1416,10 +1463,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1430,14 +1487,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1446,16 +1502,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1463,11 +1519,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1476,9 +1534,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1494,14 +1552,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1510,22 +1567,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1535,12 +1581,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1882,11 +1922,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
